--- a/Tablas + Diego Muro (2daPreentregaDA).xlsx
+++ b/Tablas + Diego Muro (2daPreentregaDA).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\DM\PUENTE\TIC\CH06-DataAnalitycs\Proyecto final DM\Segunda_Preentrega_DA_Diego_Muro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C27E25B-AB9F-422C-9579-40AEFCCC1E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C13DF0-1A20-4C02-8077-783EB8C01326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4725" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B3A9B366-BE95-4518-A3B4-9A07976609BE}"/>
+    <workbookView xWindow="20370" yWindow="-4725" windowWidth="29040" windowHeight="15720" xr2:uid="{B3A9B366-BE95-4518-A3B4-9A07976609BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="2" r:id="rId1"/>
@@ -1451,10 +1451,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49906977-6168-445A-B914-424226E1B2D2}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:P65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2063,6 +2066,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2073,7 +2077,7 @@
   </sheetPr>
   <dimension ref="B1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+    <sheetView topLeftCell="C15" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>

--- a/Tablas + Diego Muro (2daPreentregaDA).xlsx
+++ b/Tablas + Diego Muro (2daPreentregaDA).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\DM\PUENTE\TIC\CH06-DataAnalitycs\Proyecto final DM\Segunda_Preentrega_DA_Diego_Muro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C13DF0-1A20-4C02-8077-783EB8C01326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B317F5A3-52BA-4DDB-B8CD-4537552B7B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4725" windowWidth="29040" windowHeight="15720" xr2:uid="{B3A9B366-BE95-4518-A3B4-9A07976609BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{B3A9B366-BE95-4518-A3B4-9A07976609BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="2" r:id="rId1"/>
@@ -1456,7 +1456,7 @@
   </sheetPr>
   <dimension ref="B2:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
@@ -2077,8 +2077,8 @@
   </sheetPr>
   <dimension ref="B1:R86"/>
   <sheetViews>
-    <sheetView topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="G28" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3037,7 +3037,7 @@
         <v>34</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="L32" s="25" t="s">
         <v>117</v>
@@ -3052,7 +3052,7 @@
         <v>34</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="R32" s="25" t="s">
         <v>117</v>
@@ -3084,7 +3084,7 @@
         <v>42</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="L33" s="25" t="s">
         <v>121</v>
@@ -3116,7 +3116,7 @@
         <v>25</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="F34" s="25" t="s">
         <v>116</v>
@@ -3753,6 +3753,6 @@
     <row r="86" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>